--- a/elo/LIHKG-Record.xlsx
+++ b/elo/LIHKG-Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\go\elo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781BB1FC-C3CE-4885-92A3-E7B4548B7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09595950-4601-4851-AC01-E4393EA81726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="702">
   <si>
     <t>Date</t>
   </si>
@@ -3291,6 +3291,12 @@
     <t>https://online-go.com/game/57689058</t>
   </si>
   <si>
+    <t>https://online-go.com/review/1153993</t>
+  </si>
+  <si>
+    <t>https://online-go.com/game/58058254</t>
+  </si>
+  <si>
     <t>Season 5 League B Round 6</t>
   </si>
   <si>
@@ -3300,6 +3306,9 @@
     <t>https://online-go.com/game/57748723</t>
   </si>
   <si>
+    <t>https://online-go.com/game/57838170</t>
+  </si>
+  <si>
     <t>級位研修杯賽 第一期 初賽</t>
   </si>
   <si>
@@ -3364,6 +3373,27 @@
   </si>
   <si>
     <t>級位研修杯賽 第一期 Group B</t>
+  </si>
+  <si>
+    <t>https://online-go.com/game/57841678</t>
+  </si>
+  <si>
+    <t>棋聖戰 第二期 Round of 16</t>
+  </si>
+  <si>
+    <t>https://online-go.com/review/1152989</t>
+  </si>
+  <si>
+    <t>https://online-go.com/game/57868915</t>
+  </si>
+  <si>
+    <t>Chiwing</t>
+  </si>
+  <si>
+    <t>https://online-go.com/game/57967083</t>
+  </si>
+  <si>
+    <t>https://online-go.com/demo/view/1156796</t>
   </si>
   <si>
     <t>Player</t>
@@ -3439,14 +3469,46 @@
     </r>
   </si>
   <si>
+    <t>PCW</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rado</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuroba</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chun</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4d</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chiwing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5d</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>Hikarunsai</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3535,7 +3597,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3579,7 +3641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3672,6 +3734,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3892,11 +3957,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI913"/>
+  <dimension ref="A1:AI918"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G311" sqref="G311"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J279" sqref="J279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4004,7 +4069,7 @@
         <v>Chun</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>18</v>
@@ -4066,7 +4131,7 @@
         <v>Magic</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>26</v>
@@ -4128,7 +4193,7 @@
         <v>Jak</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>31</v>
@@ -4190,7 +4255,7 @@
         <v>Bus</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>36</v>
@@ -4252,7 +4317,7 @@
         <v>Chun</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>40</v>
@@ -4314,7 +4379,7 @@
         <v>Bus</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>44</v>
@@ -4376,7 +4441,7 @@
         <v>Magic</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>47</v>
@@ -4438,7 +4503,7 @@
         <v>maboroshi</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>51</v>
@@ -4500,7 +4565,7 @@
         <v>Jak</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>54</v>
@@ -4562,7 +4627,7 @@
         <v>GodFather</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>58</v>
@@ -4624,7 +4689,7 @@
         <v>Sum</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>61</v>
@@ -4686,7 +4751,7 @@
         <v>Rado</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>65</v>
@@ -4748,7 +4813,7 @@
         <v>Rado</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>68</v>
@@ -4810,7 +4875,7 @@
         <v>Bus</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>72</v>
@@ -4872,7 +4937,7 @@
         <v>Chun</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>76</v>
@@ -4934,7 +4999,7 @@
         <v>Sum</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>79</v>
@@ -4996,7 +5061,7 @@
         <v>Rado</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>82</v>
@@ -5058,7 +5123,7 @@
         <v>Magic</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>86</v>
@@ -5120,7 +5185,7 @@
         <v>Chun</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>89</v>
@@ -5182,7 +5247,7 @@
         <v>Jak</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>92</v>
@@ -5244,7 +5309,7 @@
         <v>Magic</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>95</v>
@@ -5306,7 +5371,7 @@
         <v>Sum</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>99</v>
@@ -5368,7 +5433,7 @@
         <v>Jak</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>102</v>
@@ -5430,7 +5495,7 @@
         <v>Chun</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>105</v>
@@ -5492,7 +5557,7 @@
         <v>Magic</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>109</v>
@@ -5554,7 +5619,7 @@
         <v>Bus</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>112</v>
@@ -5616,7 +5681,7 @@
         <v>Sum</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>115</v>
@@ -5678,7 +5743,7 @@
         <v>Rado</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>119</v>
@@ -5740,7 +5805,7 @@
         <v>Magic</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>122</v>
@@ -5802,7 +5867,7 @@
         <v>Bus</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>125</v>
@@ -5864,7 +5929,7 @@
         <v>Jak</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>129</v>
@@ -5926,7 +5991,7 @@
         <v>Rado</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>132</v>
@@ -5988,7 +6053,7 @@
         <v>honpan</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>137</v>
@@ -6050,7 +6115,7 @@
         <v>maboroshi</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>95</v>
@@ -6112,7 +6177,7 @@
         <v>Bus</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>146</v>
@@ -6174,7 +6239,7 @@
         <v>Sum</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>150</v>
@@ -6236,7 +6301,7 @@
         <v>Jason</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>154</v>
@@ -6298,7 +6363,7 @@
         <v>Dominic</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>159</v>
@@ -6360,7 +6425,7 @@
         <v>Magic</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>95</v>
@@ -6422,7 +6487,7 @@
         <v>don</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>165</v>
@@ -6484,7 +6549,7 @@
         <v>honpan</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>168</v>
@@ -6546,7 +6611,7 @@
         <v>Sum</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>172</v>
@@ -6608,7 +6673,7 @@
         <v>Magic</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>175</v>
@@ -6670,7 +6735,7 @@
         <v>don</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>178</v>
@@ -6732,7 +6797,7 @@
         <v>Magic</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>181</v>
@@ -6794,7 +6859,7 @@
         <v>don</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>185</v>
@@ -6856,7 +6921,7 @@
         <v>Sum</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>188</v>
@@ -6918,7 +6983,7 @@
         <v>Magic</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>192</v>
@@ -6980,7 +7045,7 @@
         <v>Magic</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>95</v>
@@ -7042,7 +7107,7 @@
         <v>Chun</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>95</v>
@@ -7104,7 +7169,7 @@
         <v>Sum</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>95</v>
@@ -7166,7 +7231,7 @@
         <v>Mike</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>159</v>
@@ -7228,7 +7293,7 @@
         <v>Anson</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>208</v>
@@ -7290,7 +7355,7 @@
         <v>無敵</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>213</v>
@@ -7352,7 +7417,7 @@
         <v>Tracy</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>217</v>
@@ -7414,7 +7479,7 @@
         <v>浪叔</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>213</v>
@@ -7476,7 +7541,7 @@
         <v>Walter 3000</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>226</v>
@@ -7538,7 +7603,7 @@
         <v>Chun</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>229</v>
@@ -7600,7 +7665,7 @@
         <v>Rado</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>233</v>
@@ -7662,7 +7727,7 @@
         <v>Magic</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>213</v>
@@ -7724,7 +7789,7 @@
         <v>Interlude</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>238</v>
@@ -7786,7 +7851,7 @@
         <v>無敵</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>242</v>
@@ -7848,7 +7913,7 @@
         <v>don</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>245</v>
@@ -7910,7 +7975,7 @@
         <v>Mike 11</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>248</v>
@@ -7972,7 +8037,7 @@
         <v>Walter 3000</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>252</v>
@@ -8034,7 +8099,7 @@
         <v>Tracy</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>255</v>
@@ -8096,7 +8161,7 @@
         <v>Chun</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>258</v>
@@ -8158,7 +8223,7 @@
         <v>Rado</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>262</v>
@@ -8220,7 +8285,7 @@
         <v>Sum</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>265</v>
@@ -8282,7 +8347,7 @@
         <v>無敵</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>268</v>
@@ -8344,7 +8409,7 @@
         <v>Mike</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>272</v>
@@ -8406,7 +8471,7 @@
         <v>Interlude</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>275</v>
@@ -8468,7 +8533,7 @@
         <v>Tracy</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>213</v>
@@ -8530,7 +8595,7 @@
         <v>Mike 11</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>281</v>
@@ -8592,7 +8657,7 @@
         <v>Jak</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>284</v>
@@ -8654,7 +8719,7 @@
         <v>Magic</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>288</v>
@@ -8716,7 +8781,7 @@
         <v>Chun</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>291</v>
@@ -8778,7 +8843,7 @@
         <v>無敵</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>294</v>
@@ -8840,7 +8905,7 @@
         <v>don</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>213</v>
@@ -8902,7 +8967,7 @@
         <v>Anson</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>300</v>
@@ -8964,7 +9029,7 @@
         <v>早晨</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>303</v>
@@ -9026,7 +9091,7 @@
         <v>Tracy</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>307</v>
@@ -9088,7 +9153,7 @@
         <v>Chun</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>310</v>
@@ -9150,7 +9215,7 @@
         <v>Jak</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>314</v>
@@ -9212,7 +9277,7 @@
         <v>Rado</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>317</v>
@@ -9274,7 +9339,7 @@
         <v>don</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>320</v>
@@ -9336,7 +9401,7 @@
         <v>無敵</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>324</v>
@@ -9398,7 +9463,7 @@
         <v>Mike</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>327</v>
@@ -9460,7 +9525,7 @@
         <v>Tracy</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>330</v>
@@ -9522,7 +9587,7 @@
         <v>Walter 3000</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>334</v>
@@ -9584,7 +9649,7 @@
         <v>Magic</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K92" s="18" t="s">
         <v>95</v>
@@ -9646,7 +9711,7 @@
         <v>Chun</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K93" s="18" t="s">
         <v>255</v>
@@ -9708,7 +9773,7 @@
         <v>Jak</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K94" s="18" t="s">
         <v>340</v>
@@ -9770,7 +9835,7 @@
         <v>Rado</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K95" s="18" t="s">
         <v>95</v>
@@ -9832,7 +9897,7 @@
         <v>Ramen</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K96" s="18" t="s">
         <v>95</v>
@@ -9894,7 +9959,7 @@
         <v>Bus</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K97" s="18" t="s">
         <v>348</v>
@@ -9956,7 +10021,7 @@
         <v>Wai</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K98" s="18" t="s">
         <v>95</v>
@@ -10018,7 +10083,7 @@
         <v>omgglol</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K99" s="18" t="s">
         <v>354</v>
@@ -10080,7 +10145,7 @@
         <v>Anson</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>208</v>
@@ -10142,7 +10207,7 @@
         <v>don</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K101" s="18" t="s">
         <v>95</v>
@@ -10204,7 +10269,7 @@
         <v>Mike</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K102" s="18" t="s">
         <v>95</v>
@@ -10266,7 +10331,7 @@
         <v>Magic</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K103" s="18" t="s">
         <v>95</v>
@@ -10328,7 +10393,7 @@
         <v>Horace</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K104" s="18" t="s">
         <v>95</v>
@@ -10390,7 +10455,7 @@
         <v>Wai</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>363</v>
@@ -10452,7 +10517,7 @@
         <v>Ramen</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>294</v>
@@ -10514,7 +10579,7 @@
         <v>omgglol</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>366</v>
@@ -10576,7 +10641,7 @@
         <v>Magic</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>192</v>
@@ -10638,7 +10703,7 @@
         <v>don</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K109" s="18" t="s">
         <v>95</v>
@@ -10700,7 +10765,7 @@
         <v>Jak</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K110" s="18" t="s">
         <v>95</v>
@@ -10762,7 +10827,7 @@
         <v>Anson</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K111" s="18" t="s">
         <v>95</v>
@@ -10824,7 +10889,7 @@
         <v>Ramen</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K112" s="18" t="s">
         <v>95</v>
@@ -10886,7 +10951,7 @@
         <v>Wai</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K113" s="18" t="s">
         <v>95</v>
@@ -10948,7 +11013,7 @@
         <v>Horace</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>137</v>
@@ -11010,7 +11075,7 @@
         <v>Winnie</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>146</v>
@@ -11072,7 +11137,7 @@
         <v>Magic</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K116" s="18" t="s">
         <v>95</v>
@@ -11134,7 +11199,7 @@
         <v>Jak</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K117" s="18" t="s">
         <v>95</v>
@@ -11196,7 +11261,7 @@
         <v>Mike</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>381</v>
@@ -11258,7 +11323,7 @@
         <v>don</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K119" s="18" t="s">
         <v>95</v>
@@ -11320,7 +11385,7 @@
         <v>Ramen</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K120" s="18" t="s">
         <v>95</v>
@@ -11382,7 +11447,7 @@
         <v>omgglol</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K121" s="6" t="s">
         <v>386</v>
@@ -11444,7 +11509,7 @@
         <v>Wai</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K122" s="6" t="s">
         <v>388</v>
@@ -11506,7 +11571,7 @@
         <v>Bus</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>390</v>
@@ -11568,7 +11633,7 @@
         <v>don</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K124" s="18" t="s">
         <v>95</v>
@@ -11630,7 +11695,7 @@
         <v>Magic</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K125" s="6" t="s">
         <v>213</v>
@@ -11692,7 +11757,7 @@
         <v>Jak</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K126" s="18" t="s">
         <v>95</v>
@@ -11754,7 +11819,7 @@
         <v>Mike</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>238</v>
@@ -11816,7 +11881,7 @@
         <v>Ramen</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>397</v>
@@ -11878,7 +11943,7 @@
         <v>Horace</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>400</v>
@@ -11940,7 +12005,7 @@
         <v>Bus</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K130" s="6" t="s">
         <v>402</v>
@@ -12002,7 +12067,7 @@
         <v>omgglol</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K131" s="6" t="s">
         <v>340</v>
@@ -12064,7 +12129,7 @@
         <v>Magic</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K132" s="18" t="s">
         <v>95</v>
@@ -12126,7 +12191,7 @@
         <v>don</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K133" s="6" t="s">
         <v>213</v>
@@ -12188,7 +12253,7 @@
         <v>Jak</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K134" s="6" t="s">
         <v>408</v>
@@ -12250,7 +12315,7 @@
         <v>Rado</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K135" s="18" t="s">
         <v>95</v>
@@ -12312,7 +12377,7 @@
         <v>Ramen</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K136" s="18" t="s">
         <v>95</v>
@@ -12374,7 +12439,7 @@
         <v>omgglol</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>413</v>
@@ -12436,7 +12501,7 @@
         <v>Horace</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K138" s="6" t="s">
         <v>213</v>
@@ -12498,7 +12563,7 @@
         <v>Wing</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K139" s="6" t="s">
         <v>416</v>
@@ -12560,7 +12625,7 @@
         <v>Chun</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K140" s="18" t="s">
         <v>95</v>
@@ -12622,7 +12687,7 @@
         <v>Rado</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K141" s="6" t="s">
         <v>416</v>
@@ -12684,7 +12749,7 @@
         <v>Jak</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K142" s="6" t="s">
         <v>354</v>
@@ -12746,7 +12811,7 @@
         <v>Anson</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>213</v>
@@ -12808,7 +12873,7 @@
         <v>omgglol</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K144" s="18" t="s">
         <v>95</v>
@@ -12870,7 +12935,7 @@
         <v>Horace</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K145" s="18" t="s">
         <v>95</v>
@@ -12932,7 +12997,7 @@
         <v>Winnie</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K146" s="18" t="s">
         <v>95</v>
@@ -12994,7 +13059,7 @@
         <v>Magic</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K147" s="18" t="s">
         <v>95</v>
@@ -13056,7 +13121,7 @@
         <v>Mike</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K148" s="6" t="s">
         <v>429</v>
@@ -13118,7 +13183,7 @@
         <v>omgglol</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K149" s="6" t="s">
         <v>354</v>
@@ -13180,7 +13245,7 @@
         <v>Jak</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K150" s="6" t="s">
         <v>340</v>
@@ -13242,7 +13307,7 @@
         <v>Steven</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K151" s="6" t="s">
         <v>213</v>
@@ -13304,7 +13369,7 @@
         <v>honpan</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>213</v>
@@ -13366,7 +13431,7 @@
         <v>Rado</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K153" s="6" t="s">
         <v>208</v>
@@ -13428,7 +13493,7 @@
         <v>Anson</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K154" s="18" t="s">
         <v>95</v>
@@ -13490,7 +13555,7 @@
         <v>Magic</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K155" s="18" t="s">
         <v>95</v>
@@ -13552,7 +13617,7 @@
         <v>Jak</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>443</v>
@@ -13614,7 +13679,7 @@
         <v>Wai</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K157" s="18" t="s">
         <v>95</v>
@@ -13676,7 +13741,7 @@
         <v>omgglol</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K158" s="18" t="s">
         <v>95</v>
@@ -13738,7 +13803,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K159" s="6" t="s">
         <v>447</v>
@@ -13800,7 +13865,7 @@
         <v>Steven</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K160" s="6" t="s">
         <v>450</v>
@@ -13862,7 +13927,7 @@
         <v>Chun</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K161" s="18" t="s">
         <v>95</v>
@@ -13924,7 +13989,7 @@
         <v>Sum</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K162" s="18" t="s">
         <v>95</v>
@@ -13986,7 +14051,7 @@
         <v>Magic</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K163" s="18" t="s">
         <v>95</v>
@@ -14048,7 +14113,7 @@
         <v>Mike</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K164" s="6" t="s">
         <v>137</v>
@@ -14110,7 +14175,7 @@
         <v>don</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K165" s="18" t="s">
         <v>95</v>
@@ -14172,7 +14237,7 @@
         <v>Wai</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K166" s="18" t="s">
         <v>95</v>
@@ -14234,7 +14299,7 @@
         <v>Chun</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K167" s="18" t="s">
         <v>95</v>
@@ -14296,7 +14361,7 @@
         <v>Steven</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K168" s="6" t="s">
         <v>381</v>
@@ -14358,7 +14423,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K169" s="18" t="s">
         <v>95</v>
@@ -14420,7 +14485,7 @@
         <v>Rado</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K170" s="18" t="s">
         <v>95</v>
@@ -14482,7 +14547,7 @@
         <v>don</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K171" s="18" t="s">
         <v>95</v>
@@ -14544,7 +14609,7 @@
         <v>Magic</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K172" s="18" t="s">
         <v>95</v>
@@ -14606,7 +14671,7 @@
         <v>Mike</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K173" s="18" t="s">
         <v>95</v>
@@ -14668,7 +14733,7 @@
         <v>Jak</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K174" s="18" t="s">
         <v>95</v>
@@ -14730,7 +14795,7 @@
         <v>Steven</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K175" s="18" t="s">
         <v>95</v>
@@ -14792,7 +14857,7 @@
         <v>Anson</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K176" s="18" t="s">
         <v>95</v>
@@ -14854,7 +14919,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K177" s="18" t="s">
         <v>95</v>
@@ -14916,7 +14981,7 @@
         <v>Rado</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K178" s="18" t="s">
         <v>95</v>
@@ -14978,7 +15043,7 @@
         <v>Magic</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K179" s="18" t="s">
         <v>95</v>
@@ -15040,7 +15105,7 @@
         <v>omgglol</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K180" s="18" t="s">
         <v>95</v>
@@ -15102,7 +15167,7 @@
         <v>don</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K181" s="18" t="s">
         <v>95</v>
@@ -15164,7 +15229,7 @@
         <v>Mike</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K182" s="6" t="s">
         <v>262</v>
@@ -15226,7 +15291,7 @@
         <v>Anson</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K183" s="6" t="s">
         <v>291</v>
@@ -15288,7 +15353,7 @@
         <v>Steven</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K184" s="18" t="s">
         <v>95</v>
@@ -15350,7 +15415,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>95</v>
@@ -15412,7 +15477,7 @@
         <v>Sum</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K186" s="18" t="s">
         <v>95</v>
@@ -15474,7 +15539,7 @@
         <v>Mike</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K187" s="18" t="s">
         <v>95</v>
@@ -15536,7 +15601,7 @@
         <v>Horace</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K188" s="18" t="s">
         <v>95</v>
@@ -15598,7 +15663,7 @@
         <v>don</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K189" s="18" t="s">
         <v>95</v>
@@ -15660,7 +15725,7 @@
         <v>Magic</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K190" s="18" t="s">
         <v>95</v>
@@ -15722,7 +15787,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K191" s="18" t="s">
         <v>95</v>
@@ -15784,7 +15849,7 @@
         <v>Rado</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K192" s="18" t="s">
         <v>95</v>
@@ -15846,7 +15911,7 @@
         <v>Sum</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K193" s="18" t="s">
         <v>95</v>
@@ -15908,7 +15973,7 @@
         <v>Anson</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K194" s="18" t="s">
         <v>95</v>
@@ -15970,7 +16035,7 @@
         <v>Jak</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K195" s="18" t="s">
         <v>95</v>
@@ -16032,7 +16097,7 @@
         <v>Magic</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K196" s="18" t="s">
         <v>95</v>
@@ -16094,7 +16159,7 @@
         <v>Mike</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K197" s="18" t="s">
         <v>95</v>
@@ -16156,7 +16221,7 @@
         <v>omgglol</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K198" s="18" t="s">
         <v>95</v>
@@ -16218,7 +16283,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K199" s="18" t="s">
         <v>95</v>
@@ -16280,7 +16345,7 @@
         <v>Anson</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K200" s="18" t="s">
         <v>95</v>
@@ -16342,7 +16407,7 @@
         <v>Steven</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K201" s="18" t="s">
         <v>95</v>
@@ -16404,7 +16469,7 @@
         <v>Chun</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K202" s="18" t="s">
         <v>95</v>
@@ -16466,7 +16531,7 @@
         <v>Tracy</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K203" s="6" t="s">
         <v>505</v>
@@ -16528,7 +16593,7 @@
         <v>早晨</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K204" s="18" t="s">
         <v>95</v>
@@ -16590,7 +16655,7 @@
         <v>Winnie</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K205" s="6" t="s">
         <v>208</v>
@@ -16652,7 +16717,7 @@
         <v>CCB</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K206" s="6" t="s">
         <v>99</v>
@@ -16714,7 +16779,7 @@
         <v>早晨</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K207" s="6" t="s">
         <v>159</v>
@@ -16776,7 +16841,7 @@
         <v>Wormwood</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K208" s="18" t="s">
         <v>95</v>
@@ -16838,7 +16903,7 @@
         <v>Kyoto</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K209" s="6" t="s">
         <v>518</v>
@@ -16900,7 +16965,7 @@
         <v>Elise</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K210" s="18" t="s">
         <v>95</v>
@@ -16962,7 +17027,7 @@
         <v>Winnie</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K211" s="6" t="s">
         <v>233</v>
@@ -17024,7 +17089,7 @@
         <v>Kyoto</v>
       </c>
       <c r="J212" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K212" s="6" t="s">
         <v>238</v>
@@ -17086,7 +17151,7 @@
         <v>Winnie</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K213" s="18" t="s">
         <v>95</v>
@@ -17148,7 +17213,7 @@
         <v>Wormwood</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K214" s="6" t="s">
         <v>527</v>
@@ -17210,7 +17275,7 @@
         <v>Analogman</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K215" s="18" t="s">
         <v>95</v>
@@ -17272,7 +17337,7 @@
         <v>Kyoto</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K216" s="6" t="s">
         <v>518</v>
@@ -17334,7 +17399,7 @@
         <v>Analogman</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K217" s="6" t="s">
         <v>238</v>
@@ -17396,7 +17461,7 @@
         <v>早晨</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K218" s="6" t="s">
         <v>165</v>
@@ -17458,7 +17523,7 @@
         <v>CCB</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K219" s="6" t="s">
         <v>284</v>
@@ -17520,7 +17585,7 @@
         <v>Hikarunsai</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K220" s="18" t="s">
         <v>95</v>
@@ -17582,7 +17647,7 @@
         <v>PCW</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K221" s="6" t="s">
         <v>450</v>
@@ -17644,7 +17709,7 @@
         <v>Steven</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K222" s="6" t="s">
         <v>363</v>
@@ -17706,7 +17771,7 @@
         <v>蘋果糖</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K223" s="6" t="s">
         <v>99</v>
@@ -17768,7 +17833,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J224" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K224" s="18" t="s">
         <v>95</v>
@@ -17830,7 +17895,7 @@
         <v>Pepe</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K225" s="18" t="s">
         <v>95</v>
@@ -17892,7 +17957,7 @@
         <v>Mike</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K226" s="18" t="s">
         <v>95</v>
@@ -17954,7 +18019,7 @@
         <v>Chun</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K227" s="18" t="s">
         <v>95</v>
@@ -18016,7 +18081,7 @@
         <v>Wormwood</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K228" s="18" t="s">
         <v>95</v>
@@ -18078,7 +18143,7 @@
         <v>Tracy</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K229" s="6" t="s">
         <v>443</v>
@@ -18140,7 +18205,7 @@
         <v>don</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K230" s="18" t="s">
         <v>95</v>
@@ -18202,7 +18267,7 @@
         <v>Wai</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K231" s="18" t="s">
         <v>213</v>
@@ -18264,7 +18329,7 @@
         <v>Anson</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K232" s="18" t="s">
         <v>95</v>
@@ -18326,7 +18391,7 @@
         <v>CCB</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K233" s="6" t="s">
         <v>150</v>
@@ -18388,7 +18453,7 @@
         <v>keith</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K234" s="18" t="s">
         <v>95</v>
@@ -18450,7 +18515,7 @@
         <v>Steven</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K235" s="18" t="s">
         <v>95</v>
@@ -18493,8 +18558,8 @@
       <c r="B236" s="5">
         <v>45074</v>
       </c>
-      <c r="C236" s="31" t="s">
-        <v>683</v>
+      <c r="C236" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="6" t="s">
@@ -18512,7 +18577,7 @@
         <v>Hikarunsai</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K236" s="18" t="s">
         <v>95</v>
@@ -18574,7 +18639,7 @@
         <v>Pepe</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K237" s="18" t="s">
         <v>95</v>
@@ -18636,7 +18701,7 @@
         <v>Wai</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K238" s="18" t="s">
         <v>213</v>
@@ -18698,7 +18763,7 @@
         <v>Anson</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K239" s="18" t="s">
         <v>95</v>
@@ -18760,7 +18825,7 @@
         <v>Mike</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K240" s="18" t="s">
         <v>95</v>
@@ -18822,7 +18887,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K241" s="6" t="s">
         <v>566</v>
@@ -18884,7 +18949,7 @@
         <v>蘋果糖</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K242" s="6" t="s">
         <v>408</v>
@@ -18946,7 +19011,7 @@
         <v>Mike</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K243" s="18" t="s">
         <v>213</v>
@@ -19008,7 +19073,7 @@
         <v>Hikarunsai</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K244" s="6" t="s">
         <v>408</v>
@@ -19070,7 +19135,7 @@
         <v>Pepe</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K245" s="18" t="s">
         <v>95</v>
@@ -19132,7 +19197,7 @@
         <v>Steven</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K246" s="18" t="s">
         <v>95</v>
@@ -19177,7 +19242,7 @@
         <v>202</v>
       </c>
       <c r="D247" s="6"/>
-      <c r="E247" s="31" t="s">
+      <c r="E247" s="6" t="s">
         <v>536</v>
       </c>
       <c r="F247" s="18"/>
@@ -19192,7 +19257,7 @@
         <v>Mike</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K247" s="18" t="s">
         <v>95</v>
@@ -19254,7 +19319,7 @@
         <v>Steven</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K248" s="18" t="s">
         <v>95</v>
@@ -19316,7 +19381,7 @@
         <v>Steven</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K249" s="18" t="s">
         <v>95</v>
@@ -19378,7 +19443,7 @@
         <v>Steven</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K250" s="18" t="s">
         <v>95</v>
@@ -19440,7 +19505,7 @@
         <v>Steven</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K251" s="18" t="s">
         <v>95</v>
@@ -19502,7 +19567,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K252" s="18" t="s">
         <v>95</v>
@@ -19564,7 +19629,7 @@
         <v>Mike</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K253" s="18" t="s">
         <v>95</v>
@@ -19626,7 +19691,7 @@
         <v>Steven</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K254" s="18" t="s">
         <v>95</v>
@@ -19688,7 +19753,7 @@
         <v>Magic</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K255" s="18" t="s">
         <v>238</v>
@@ -19750,7 +19815,7 @@
         <v>Horace</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K256" s="18" t="s">
         <v>95</v>
@@ -19812,7 +19877,7 @@
         <v>Chun</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K257" s="6" t="s">
         <v>192</v>
@@ -19874,7 +19939,7 @@
         <v>Isaac</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K258" s="18" t="s">
         <v>95</v>
@@ -19936,7 +20001,7 @@
         <v>Alfred</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K259" s="18" t="s">
         <v>594</v>
@@ -19998,7 +20063,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K260" s="18" t="s">
         <v>238</v>
@@ -20060,7 +20125,7 @@
         <v>Jak</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K261" s="18" t="s">
         <v>95</v>
@@ -20122,7 +20187,7 @@
         <v>Anson</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K262" s="18" t="s">
         <v>95</v>
@@ -20184,7 +20249,7 @@
         <v>Steven</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K263" s="18" t="s">
         <v>95</v>
@@ -20246,7 +20311,7 @@
         <v>Isaac</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K264" s="18" t="s">
         <v>159</v>
@@ -20308,7 +20373,7 @@
         <v>Alfred</v>
       </c>
       <c r="J265" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K265" s="18" t="s">
         <v>213</v>
@@ -20370,7 +20435,7 @@
         <v>Horace</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K266" s="18" t="s">
         <v>381</v>
@@ -20432,7 +20497,7 @@
         <v>honpan</v>
       </c>
       <c r="J267" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K267" s="18" t="s">
         <v>95</v>
@@ -20494,7 +20559,7 @@
         <v>Magic</v>
       </c>
       <c r="J268" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K268" s="18" t="s">
         <v>408</v>
@@ -20556,7 +20621,7 @@
         <v>Mike</v>
       </c>
       <c r="J269" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K269" s="18" t="s">
         <v>95</v>
@@ -20618,7 +20683,7 @@
         <v>Steven</v>
       </c>
       <c r="J270" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K270" s="18" t="s">
         <v>450</v>
@@ -20680,7 +20745,7 @@
         <v>Anson</v>
       </c>
       <c r="J271" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K271" s="18" t="s">
         <v>95</v>
@@ -20742,7 +20807,7 @@
         <v>Alfred</v>
       </c>
       <c r="J272" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K272" s="18" t="s">
         <v>291</v>
@@ -20804,7 +20869,7 @@
         <v>Chun</v>
       </c>
       <c r="J273" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K273" s="18" t="s">
         <v>95</v>
@@ -20866,7 +20931,7 @@
         <v>Horace</v>
       </c>
       <c r="J274" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K274" s="18" t="s">
         <v>192</v>
@@ -20928,7 +20993,7 @@
         <v>Pepe</v>
       </c>
       <c r="J275" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K275" s="18" t="s">
         <v>95</v>
@@ -20990,7 +21055,7 @@
         <v>Steven</v>
       </c>
       <c r="J276" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K276" s="18" t="s">
         <v>95</v>
@@ -21052,7 +21117,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J277" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K277" s="18" t="s">
         <v>95</v>
@@ -21114,7 +21179,7 @@
         <v>Rado</v>
       </c>
       <c r="J278" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K278" s="18" t="s">
         <v>95</v>
@@ -21176,7 +21241,7 @@
         <v>Mike</v>
       </c>
       <c r="J279" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K279" s="18" t="s">
         <v>95</v>
@@ -21236,7 +21301,7 @@
         <v>Isaac</v>
       </c>
       <c r="J280" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K280" s="18" t="s">
         <v>408</v>
@@ -21298,7 +21363,7 @@
         <v>Pepe</v>
       </c>
       <c r="J281" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K281" s="18" t="s">
         <v>95</v>
@@ -21360,7 +21425,7 @@
         <v>Horace</v>
       </c>
       <c r="J282" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K282" s="18" t="s">
         <v>95</v>
@@ -21422,7 +21487,7 @@
         <v>honpan</v>
       </c>
       <c r="J283" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K283" s="18" t="s">
         <v>95</v>
@@ -21484,7 +21549,7 @@
         <v>Jak</v>
       </c>
       <c r="J284" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K284" s="18" t="s">
         <v>95</v>
@@ -21546,7 +21611,7 @@
         <v>Steven</v>
       </c>
       <c r="J285" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K285" s="18" t="s">
         <v>95</v>
@@ -21608,7 +21673,7 @@
         <v>Magic</v>
       </c>
       <c r="J286" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K286" s="18" t="s">
         <v>95</v>
@@ -21670,7 +21735,7 @@
         <v>Mike</v>
       </c>
       <c r="J287" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K287" s="18" t="s">
         <v>95</v>
@@ -21728,11 +21793,11 @@
         <v>0</v>
       </c>
       <c r="I288" s="6" t="str">
-        <f t="shared" ref="I288:I291" si="70">E288</f>
+        <f t="shared" ref="I288:I293" si="70">E288</f>
         <v>Chun</v>
       </c>
       <c r="J288" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K288" s="18" t="s">
         <v>95</v>
@@ -21792,7 +21857,7 @@
         <v>Isaac</v>
       </c>
       <c r="J289" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K289" s="18" t="s">
         <v>95</v>
@@ -21854,7 +21919,7 @@
         <v>Alfred</v>
       </c>
       <c r="J290" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K290" s="18" t="s">
         <v>95</v>
@@ -21916,7 +21981,7 @@
         <v>Michael Cheung</v>
       </c>
       <c r="J291" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K291" s="18" t="s">
         <v>95</v>
@@ -21957,14 +22022,14 @@
     <row r="292" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="5">
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>593</v>
+        <v>38</v>
       </c>
       <c r="D292" s="18"/>
       <c r="E292" s="18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F292" s="18"/>
       <c r="G292" s="18" t="s">
@@ -21973,12 +22038,12 @@
       <c r="H292" s="6">
         <v>0</v>
       </c>
-      <c r="I292" s="18" t="str">
-        <f>C292</f>
-        <v>Alfred</v>
+      <c r="I292" s="6" t="str">
+        <f t="shared" si="70"/>
+        <v>Magic</v>
       </c>
       <c r="J292" s="6" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="K292" s="18" t="s">
         <v>95</v>
@@ -21990,10 +22055,10 @@
         <v>20</v>
       </c>
       <c r="N292" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="O292" s="15" t="s">
         <v>634</v>
-      </c>
-      <c r="O292" s="15" t="s">
-        <v>635</v>
       </c>
       <c r="P292" s="9"/>
       <c r="Q292" s="4"/>
@@ -22019,14 +22084,14 @@
     <row r="293" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="5">
-        <v>45206</v>
+        <v>45212</v>
       </c>
       <c r="C293" s="18" t="s">
-        <v>591</v>
+        <v>202</v>
       </c>
       <c r="D293" s="18"/>
       <c r="E293" s="18" t="s">
-        <v>16</v>
+        <v>433</v>
       </c>
       <c r="F293" s="18"/>
       <c r="G293" s="18" t="s">
@@ -22036,11 +22101,11 @@
         <v>0</v>
       </c>
       <c r="I293" s="6" t="str">
-        <f>E293</f>
-        <v>Chun</v>
+        <f t="shared" si="70"/>
+        <v>Steven</v>
       </c>
       <c r="J293" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K293" s="18" t="s">
         <v>95</v>
@@ -22052,11 +22117,9 @@
         <v>20</v>
       </c>
       <c r="N293" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="O293" s="15" t="s">
-        <v>636</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="O293" s="4"/>
       <c r="P293" s="9"/>
       <c r="Q293" s="4"/>
       <c r="R293" s="4"/>
@@ -22080,15 +22143,15 @@
     </row>
     <row r="294" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
-      <c r="B294" s="23">
-        <v>45160</v>
+      <c r="B294" s="5">
+        <v>45216</v>
       </c>
       <c r="C294" s="18" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
       <c r="D294" s="18"/>
       <c r="E294" s="18" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="F294" s="18"/>
       <c r="G294" s="18" t="s">
@@ -22097,27 +22160,27 @@
       <c r="H294" s="6">
         <v>0</v>
       </c>
-      <c r="I294" s="6" t="str">
-        <f t="shared" ref="I294:I299" si="71">E294</f>
-        <v>早晨</v>
+      <c r="I294" s="18" t="str">
+        <f t="shared" ref="I294:I295" si="71">C294</f>
+        <v>Anson</v>
       </c>
       <c r="J294" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="K294" s="6" t="s">
-        <v>366</v>
+        <v>701</v>
+      </c>
+      <c r="K294" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="L294" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M294" s="18" t="s">
-        <v>506</v>
+        <v>20</v>
       </c>
       <c r="N294" s="9" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="O294" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P294" s="9"/>
       <c r="Q294" s="4"/>
@@ -22142,15 +22205,15 @@
     </row>
     <row r="295" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
-      <c r="B295" s="23">
-        <v>45161</v>
+      <c r="B295" s="5">
+        <v>45204</v>
       </c>
       <c r="C295" s="18" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="D295" s="18"/>
       <c r="E295" s="18" t="s">
-        <v>517</v>
+        <v>34</v>
       </c>
       <c r="F295" s="18"/>
       <c r="G295" s="18" t="s">
@@ -22159,12 +22222,12 @@
       <c r="H295" s="6">
         <v>0</v>
       </c>
-      <c r="I295" s="6" t="str">
+      <c r="I295" s="18" t="str">
         <f t="shared" si="71"/>
-        <v>Kyoto</v>
+        <v>Alfred</v>
       </c>
       <c r="J295" s="6" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="K295" s="18" t="s">
         <v>95</v>
@@ -22173,13 +22236,13 @@
         <v>19</v>
       </c>
       <c r="M295" s="18" t="s">
-        <v>506</v>
+        <v>20</v>
       </c>
       <c r="N295" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="O295" s="15" t="s">
         <v>637</v>
-      </c>
-      <c r="O295" s="15" t="s">
-        <v>639</v>
       </c>
       <c r="P295" s="9"/>
       <c r="Q295" s="4"/>
@@ -22204,15 +22267,15 @@
     </row>
     <row r="296" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
-      <c r="B296" s="23">
-        <v>45163</v>
+      <c r="B296" s="5">
+        <v>45206</v>
       </c>
       <c r="C296" s="18" t="s">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="D296" s="18"/>
       <c r="E296" s="18" t="s">
-        <v>511</v>
+        <v>16</v>
       </c>
       <c r="F296" s="18"/>
       <c r="G296" s="18" t="s">
@@ -22222,26 +22285,26 @@
         <v>0</v>
       </c>
       <c r="I296" s="6" t="str">
-        <f t="shared" si="71"/>
-        <v>Wormwood</v>
+        <f>E296</f>
+        <v>Chun</v>
       </c>
       <c r="J296" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="K296" s="6" t="s">
-        <v>640</v>
+        <v>700</v>
+      </c>
+      <c r="K296" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="L296" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M296" s="18" t="s">
-        <v>506</v>
+        <v>20</v>
       </c>
       <c r="N296" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="O296" s="15" t="s">
-        <v>641</v>
+        <v>636</v>
+      </c>
+      <c r="O296" s="16" t="s">
+        <v>638</v>
       </c>
       <c r="P296" s="9"/>
       <c r="Q296" s="4"/>
@@ -22266,15 +22329,15 @@
     </row>
     <row r="297" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
-      <c r="B297" s="23">
-        <v>45166</v>
+      <c r="B297" s="5">
+        <v>45209</v>
       </c>
       <c r="C297" s="18" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="D297" s="18"/>
       <c r="E297" s="18" t="s">
-        <v>517</v>
+        <v>353</v>
       </c>
       <c r="F297" s="18"/>
       <c r="G297" s="18" t="s">
@@ -22283,27 +22346,27 @@
       <c r="H297" s="6">
         <v>0</v>
       </c>
-      <c r="I297" s="6" t="str">
-        <f t="shared" si="71"/>
-        <v>Kyoto</v>
+      <c r="I297" s="18" t="str">
+        <f>C297</f>
+        <v>Pepe</v>
       </c>
       <c r="J297" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="K297" s="18" t="s">
-        <v>213</v>
+        <v>701</v>
+      </c>
+      <c r="K297" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="L297" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M297" s="18" t="s">
-        <v>506</v>
+        <v>20</v>
       </c>
       <c r="N297" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="O297" s="16" t="s">
-        <v>643</v>
+        <v>636</v>
+      </c>
+      <c r="O297" s="15" t="s">
+        <v>639</v>
       </c>
       <c r="P297" s="9"/>
       <c r="Q297" s="4"/>
@@ -22329,14 +22392,14 @@
     <row r="298" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="23">
-        <v>45167</v>
+        <v>45160</v>
       </c>
       <c r="C298" s="18" t="s">
-        <v>215</v>
+        <v>530</v>
       </c>
       <c r="D298" s="18"/>
       <c r="E298" s="18" t="s">
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="F298" s="18"/>
       <c r="G298" s="18" t="s">
@@ -22346,14 +22409,14 @@
         <v>0</v>
       </c>
       <c r="I298" s="6" t="str">
-        <f t="shared" si="71"/>
-        <v>Kyoto</v>
+        <f t="shared" ref="I298:I303" si="72">E298</f>
+        <v>早晨</v>
       </c>
       <c r="J298" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K298" s="6" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L298" s="6" t="s">
         <v>19</v>
@@ -22362,10 +22425,10 @@
         <v>506</v>
       </c>
       <c r="N298" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="O298" s="16" t="s">
-        <v>644</v>
+        <v>640</v>
+      </c>
+      <c r="O298" s="15" t="s">
+        <v>641</v>
       </c>
       <c r="P298" s="9"/>
       <c r="Q298" s="4"/>
@@ -22391,14 +22454,14 @@
     <row r="299" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="23">
-        <v>45175</v>
+        <v>45161</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D299" s="18"/>
       <c r="E299" s="18" t="s">
-        <v>215</v>
+        <v>517</v>
       </c>
       <c r="F299" s="18"/>
       <c r="G299" s="18" t="s">
@@ -22408,11 +22471,11 @@
         <v>0</v>
       </c>
       <c r="I299" s="6" t="str">
-        <f t="shared" si="71"/>
-        <v>早晨</v>
+        <f t="shared" si="72"/>
+        <v>Kyoto</v>
       </c>
       <c r="J299" s="6" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="K299" s="18" t="s">
         <v>95</v>
@@ -22424,10 +22487,10 @@
         <v>506</v>
       </c>
       <c r="N299" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="O299" s="15" t="s">
         <v>642</v>
-      </c>
-      <c r="O299" s="15" t="s">
-        <v>645</v>
       </c>
       <c r="P299" s="9"/>
       <c r="Q299" s="4"/>
@@ -22453,10 +22516,10 @@
     <row r="300" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="23">
-        <v>45189</v>
+        <v>45163</v>
       </c>
       <c r="C300" s="18" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D300" s="18"/>
       <c r="E300" s="18" t="s">
@@ -22470,14 +22533,14 @@
         <v>0</v>
       </c>
       <c r="I300" s="6" t="str">
-        <f t="shared" ref="I300:I301" si="72">C300</f>
-        <v>Kyoto</v>
+        <f t="shared" si="72"/>
+        <v>Wormwood</v>
       </c>
       <c r="J300" s="6" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L300" s="6" t="s">
         <v>19</v>
@@ -22486,10 +22549,10 @@
         <v>506</v>
       </c>
       <c r="N300" s="9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O300" s="15" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P300" s="9"/>
       <c r="Q300" s="4"/>
@@ -22515,14 +22578,14 @@
     <row r="301" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="23">
-        <v>45197</v>
+        <v>45166</v>
       </c>
       <c r="C301" s="18" t="s">
-        <v>215</v>
+        <v>511</v>
       </c>
       <c r="D301" s="18"/>
       <c r="E301" s="18" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F301" s="18"/>
       <c r="G301" s="18" t="s">
@@ -22533,10 +22596,10 @@
       </c>
       <c r="I301" s="6" t="str">
         <f t="shared" si="72"/>
-        <v>早晨</v>
+        <v>Kyoto</v>
       </c>
       <c r="J301" s="6" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="K301" s="18" t="s">
         <v>213</v>
@@ -22548,10 +22611,10 @@
         <v>506</v>
       </c>
       <c r="N301" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="O301" s="15" t="s">
-        <v>648</v>
+        <v>645</v>
+      </c>
+      <c r="O301" s="16" t="s">
+        <v>646</v>
       </c>
       <c r="P301" s="9"/>
       <c r="Q301" s="4"/>
@@ -22577,14 +22640,14 @@
     <row r="302" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="23">
-        <v>45169</v>
+        <v>45167</v>
       </c>
       <c r="C302" s="18" t="s">
-        <v>509</v>
+        <v>215</v>
       </c>
       <c r="D302" s="18"/>
       <c r="E302" s="18" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="F302" s="18"/>
       <c r="G302" s="18" t="s">
@@ -22594,14 +22657,14 @@
         <v>0</v>
       </c>
       <c r="I302" s="6" t="str">
-        <f t="shared" ref="I302:I307" si="73">C302</f>
-        <v>CCB</v>
+        <f t="shared" si="72"/>
+        <v>Kyoto</v>
       </c>
       <c r="J302" s="6" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L302" s="6" t="s">
         <v>19</v>
@@ -22610,10 +22673,10 @@
         <v>506</v>
       </c>
       <c r="N302" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="O302" s="15" t="s">
-        <v>650</v>
+        <v>645</v>
+      </c>
+      <c r="O302" s="16" t="s">
+        <v>647</v>
       </c>
       <c r="P302" s="9"/>
       <c r="Q302" s="4"/>
@@ -22639,14 +22702,14 @@
     <row r="303" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="23">
-        <v>45171</v>
+        <v>45175</v>
       </c>
       <c r="C303" s="18" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D303" s="18"/>
       <c r="E303" s="18" t="s">
-        <v>509</v>
+        <v>215</v>
       </c>
       <c r="F303" s="18"/>
       <c r="G303" s="18" t="s">
@@ -22656,14 +22719,14 @@
         <v>0</v>
       </c>
       <c r="I303" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>Hera</v>
+        <f t="shared" si="72"/>
+        <v>早晨</v>
       </c>
       <c r="J303" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="K303" s="6" t="s">
-        <v>527</v>
+        <v>700</v>
+      </c>
+      <c r="K303" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="L303" s="6" t="s">
         <v>19</v>
@@ -22672,10 +22735,10 @@
         <v>506</v>
       </c>
       <c r="N303" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="O303" s="16" t="s">
-        <v>651</v>
+        <v>645</v>
+      </c>
+      <c r="O303" s="15" t="s">
+        <v>648</v>
       </c>
       <c r="P303" s="9"/>
       <c r="Q303" s="4"/>
@@ -22701,14 +22764,14 @@
     <row r="304" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="23">
-        <v>45174</v>
+        <v>45189</v>
       </c>
       <c r="C304" s="18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D304" s="18"/>
       <c r="E304" s="18" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="F304" s="18"/>
       <c r="G304" s="18" t="s">
@@ -22718,14 +22781,14 @@
         <v>0</v>
       </c>
       <c r="I304" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>Analogman</v>
+        <f t="shared" ref="I304:I305" si="73">C304</f>
+        <v>Kyoto</v>
       </c>
       <c r="J304" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="L304" s="6" t="s">
         <v>19</v>
@@ -22734,10 +22797,10 @@
         <v>506</v>
       </c>
       <c r="N304" s="9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O304" s="15" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="P304" s="9"/>
       <c r="Q304" s="4"/>
@@ -22763,14 +22826,14 @@
     <row r="305" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="23">
-        <v>45175</v>
+        <v>45197</v>
       </c>
       <c r="C305" s="18" t="s">
-        <v>509</v>
+        <v>215</v>
       </c>
       <c r="D305" s="18"/>
       <c r="E305" s="18" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F305" s="18"/>
       <c r="G305" s="18" t="s">
@@ -22781,13 +22844,13 @@
       </c>
       <c r="I305" s="6" t="str">
         <f t="shared" si="73"/>
-        <v>CCB</v>
+        <v>早晨</v>
       </c>
       <c r="J305" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="K305" s="6" t="s">
-        <v>192</v>
+        <v>701</v>
+      </c>
+      <c r="K305" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="L305" s="6" t="s">
         <v>19</v>
@@ -22796,10 +22859,10 @@
         <v>506</v>
       </c>
       <c r="N305" s="9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O305" s="15" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="P305" s="9"/>
       <c r="Q305" s="4"/>
@@ -22825,14 +22888,14 @@
     <row r="306" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="23">
-        <v>45182</v>
+        <v>45169</v>
       </c>
       <c r="C306" s="18" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="D306" s="18"/>
       <c r="E306" s="18" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="F306" s="18"/>
       <c r="G306" s="18" t="s">
@@ -22842,14 +22905,14 @@
         <v>0</v>
       </c>
       <c r="I306" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>Hera</v>
+        <f t="shared" ref="I306:I311" si="74">C306</f>
+        <v>CCB</v>
       </c>
       <c r="J306" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>655</v>
+        <v>340</v>
       </c>
       <c r="L306" s="6" t="s">
         <v>19</v>
@@ -22858,10 +22921,10 @@
         <v>506</v>
       </c>
       <c r="N306" s="9" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="O306" s="15" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="P306" s="9"/>
       <c r="Q306" s="4"/>
@@ -22887,10 +22950,10 @@
     <row r="307" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="23">
-        <v>45187</v>
+        <v>45171</v>
       </c>
       <c r="C307" s="18" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D307" s="18"/>
       <c r="E307" s="18" t="s">
@@ -22904,14 +22967,14 @@
         <v>0</v>
       </c>
       <c r="I307" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>Analogman</v>
+        <f t="shared" si="74"/>
+        <v>Hera</v>
       </c>
       <c r="J307" s="6" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K307" s="6" t="s">
-        <v>429</v>
+        <v>527</v>
       </c>
       <c r="L307" s="6" t="s">
         <v>19</v>
@@ -22920,10 +22983,10 @@
         <v>506</v>
       </c>
       <c r="N307" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="O307" s="15" t="s">
-        <v>657</v>
+        <v>652</v>
+      </c>
+      <c r="O307" s="16" t="s">
+        <v>654</v>
       </c>
       <c r="P307" s="9"/>
       <c r="Q307" s="4"/>
@@ -22949,14 +23012,14 @@
     <row r="308" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="23">
-        <v>45201</v>
+        <v>45174</v>
       </c>
       <c r="C308" s="18" t="s">
-        <v>347</v>
+        <v>521</v>
       </c>
       <c r="D308" s="18"/>
       <c r="E308" s="18" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="F308" s="18"/>
       <c r="G308" s="18" t="s">
@@ -22966,14 +23029,14 @@
         <v>0</v>
       </c>
       <c r="I308" s="6" t="str">
-        <f>E308</f>
-        <v>Elise</v>
+        <f t="shared" si="74"/>
+        <v>Analogman</v>
       </c>
       <c r="J308" s="6" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>381</v>
+        <v>655</v>
       </c>
       <c r="L308" s="6" t="s">
         <v>19</v>
@@ -22982,9 +23045,11 @@
         <v>506</v>
       </c>
       <c r="N308" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="O308" s="4"/>
+        <v>652</v>
+      </c>
+      <c r="O308" s="15" t="s">
+        <v>656</v>
+      </c>
       <c r="P308" s="9"/>
       <c r="Q308" s="4"/>
       <c r="R308" s="4"/>
@@ -23008,20 +23073,45 @@
     </row>
     <row r="309" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
-      <c r="H309" s="4"/>
-      <c r="I309" s="4"/>
-      <c r="J309" s="4"/>
-      <c r="K309" s="4"/>
-      <c r="L309" s="18"/>
-      <c r="M309" s="18"/>
-      <c r="N309" s="9"/>
-      <c r="O309" s="4"/>
+      <c r="B309" s="23">
+        <v>45175</v>
+      </c>
+      <c r="C309" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D309" s="18"/>
+      <c r="E309" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="F309" s="18"/>
+      <c r="G309" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H309" s="6">
+        <v>0</v>
+      </c>
+      <c r="I309" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>CCB</v>
+      </c>
+      <c r="J309" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K309" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L309" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M309" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="N309" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="O309" s="15" t="s">
+        <v>657</v>
+      </c>
       <c r="P309" s="9"/>
       <c r="Q309" s="4"/>
       <c r="R309" s="4"/>
@@ -23045,20 +23135,45 @@
     </row>
     <row r="310" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="4"/>
-      <c r="H310" s="4"/>
-      <c r="I310" s="4"/>
-      <c r="J310" s="4"/>
-      <c r="K310" s="4"/>
-      <c r="L310" s="18"/>
-      <c r="M310" s="18"/>
-      <c r="N310" s="9"/>
-      <c r="O310" s="4"/>
+      <c r="B310" s="23">
+        <v>45182</v>
+      </c>
+      <c r="C310" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="F310" s="18"/>
+      <c r="G310" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H310" s="6">
+        <v>0</v>
+      </c>
+      <c r="I310" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>Hera</v>
+      </c>
+      <c r="J310" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K310" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="L310" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M310" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="N310" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="O310" s="15" t="s">
+        <v>659</v>
+      </c>
       <c r="P310" s="9"/>
       <c r="Q310" s="4"/>
       <c r="R310" s="4"/>
@@ -23082,20 +23197,45 @@
     </row>
     <row r="311" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
-      <c r="G311" s="4"/>
-      <c r="H311" s="4"/>
-      <c r="I311" s="4"/>
-      <c r="J311" s="4"/>
-      <c r="K311" s="4"/>
-      <c r="L311" s="18"/>
-      <c r="M311" s="18"/>
-      <c r="N311" s="9"/>
-      <c r="O311" s="4"/>
+      <c r="B311" s="23">
+        <v>45187</v>
+      </c>
+      <c r="C311" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D311" s="18"/>
+      <c r="E311" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F311" s="18"/>
+      <c r="G311" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H311" s="6">
+        <v>0</v>
+      </c>
+      <c r="I311" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>Analogman</v>
+      </c>
+      <c r="J311" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K311" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="L311" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M311" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="N311" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="O311" s="15" t="s">
+        <v>660</v>
+      </c>
       <c r="P311" s="9"/>
       <c r="Q311" s="4"/>
       <c r="R311" s="4"/>
@@ -23119,19 +23259,42 @@
     </row>
     <row r="312" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
-      <c r="G312" s="4"/>
-      <c r="H312" s="4"/>
-      <c r="I312" s="4"/>
-      <c r="J312" s="4"/>
-      <c r="K312" s="4"/>
-      <c r="L312" s="18"/>
-      <c r="M312" s="18"/>
-      <c r="N312" s="9"/>
+      <c r="B312" s="23">
+        <v>45201</v>
+      </c>
+      <c r="C312" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D312" s="18"/>
+      <c r="E312" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="F312" s="18"/>
+      <c r="G312" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H312" s="6">
+        <v>0</v>
+      </c>
+      <c r="I312" s="6" t="str">
+        <f>E312</f>
+        <v>Elise</v>
+      </c>
+      <c r="J312" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="K312" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="L312" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M312" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="N312" s="9" t="s">
+        <v>661</v>
+      </c>
       <c r="O312" s="4"/>
       <c r="P312" s="9"/>
       <c r="Q312" s="4"/>
@@ -23156,20 +23319,45 @@
     </row>
     <row r="313" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4"/>
-      <c r="G313" s="4"/>
-      <c r="H313" s="4"/>
-      <c r="I313" s="4"/>
-      <c r="J313" s="4"/>
-      <c r="K313" s="4"/>
-      <c r="L313" s="18"/>
-      <c r="M313" s="18"/>
-      <c r="N313" s="9"/>
-      <c r="O313" s="4"/>
+      <c r="B313" s="23">
+        <v>45209</v>
+      </c>
+      <c r="C313" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F313" s="18"/>
+      <c r="G313" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H313" s="6">
+        <v>0</v>
+      </c>
+      <c r="I313" s="6" t="str">
+        <f>C313</f>
+        <v>Winnie</v>
+      </c>
+      <c r="J313" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K313" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L313" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M313" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="N313" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="O313" s="15" t="s">
+        <v>662</v>
+      </c>
       <c r="P313" s="9"/>
       <c r="Q313" s="4"/>
       <c r="R313" s="4"/>
@@ -23193,20 +23381,45 @@
     </row>
     <row r="314" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="4"/>
-      <c r="G314" s="4"/>
-      <c r="H314" s="4"/>
-      <c r="I314" s="4"/>
-      <c r="J314" s="4"/>
-      <c r="K314" s="4"/>
-      <c r="L314" s="18"/>
-      <c r="M314" s="18"/>
-      <c r="N314" s="9"/>
-      <c r="O314" s="4"/>
+      <c r="B314" s="23">
+        <v>45209</v>
+      </c>
+      <c r="C314" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="D314" s="18"/>
+      <c r="E314" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="F314" s="18"/>
+      <c r="G314" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H314" s="6">
+        <v>0</v>
+      </c>
+      <c r="I314" s="6" t="str">
+        <f>C314</f>
+        <v>PCW</v>
+      </c>
+      <c r="J314" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K314" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L314" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M314" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="N314" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="O314" s="15" t="s">
+        <v>664</v>
+      </c>
       <c r="P314" s="9"/>
       <c r="Q314" s="4"/>
       <c r="R314" s="4"/>
@@ -23230,20 +23443,45 @@
     </row>
     <row r="315" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
-      <c r="G315" s="4"/>
-      <c r="H315" s="4"/>
-      <c r="I315" s="4"/>
-      <c r="J315" s="4"/>
-      <c r="K315" s="4"/>
-      <c r="L315" s="18"/>
-      <c r="M315" s="18"/>
-      <c r="N315" s="9"/>
-      <c r="O315" s="4"/>
+      <c r="B315" s="23">
+        <v>45210</v>
+      </c>
+      <c r="C315" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="D315" s="18"/>
+      <c r="E315" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="F315" s="18"/>
+      <c r="G315" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H315" s="6">
+        <v>0</v>
+      </c>
+      <c r="I315" s="6" t="str">
+        <f t="shared" ref="I315:I316" si="75">E315</f>
+        <v>Chun</v>
+      </c>
+      <c r="J315" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="K315" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="L315" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M315" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="N315" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="O315" s="15" t="s">
+        <v>665</v>
+      </c>
       <c r="P315" s="9"/>
       <c r="Q315" s="4"/>
       <c r="R315" s="4"/>
@@ -23267,19 +23505,42 @@
     </row>
     <row r="316" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="4"/>
-      <c r="G316" s="4"/>
-      <c r="H316" s="4"/>
-      <c r="I316" s="4"/>
-      <c r="J316" s="4"/>
-      <c r="K316" s="4"/>
-      <c r="L316" s="18"/>
-      <c r="M316" s="18"/>
-      <c r="N316" s="9"/>
+      <c r="B316" s="23">
+        <v>45212</v>
+      </c>
+      <c r="C316" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D316" s="18"/>
+      <c r="E316" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="F316" s="18"/>
+      <c r="G316" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H316" s="6">
+        <v>0</v>
+      </c>
+      <c r="I316" s="6" t="str">
+        <f t="shared" si="75"/>
+        <v>Chiwing</v>
+      </c>
+      <c r="J316" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="K316" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="L316" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M316" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="N316" s="7" t="s">
+        <v>663</v>
+      </c>
       <c r="O316" s="4"/>
       <c r="P316" s="9"/>
       <c r="Q316" s="4"/>
@@ -23304,19 +23565,42 @@
     </row>
     <row r="317" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="4"/>
-      <c r="H317" s="4"/>
-      <c r="I317" s="4"/>
-      <c r="J317" s="4"/>
-      <c r="K317" s="4"/>
-      <c r="L317" s="18"/>
-      <c r="M317" s="18"/>
-      <c r="N317" s="9"/>
+      <c r="B317" s="23">
+        <v>45212</v>
+      </c>
+      <c r="C317" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D317" s="18"/>
+      <c r="E317" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F317" s="18"/>
+      <c r="G317" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H317" s="6">
+        <v>0</v>
+      </c>
+      <c r="I317" s="6" t="str">
+        <f t="shared" ref="I317:I318" si="76">C317</f>
+        <v>Anson</v>
+      </c>
+      <c r="J317" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K317" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L317" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M317" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="N317" s="7" t="s">
+        <v>663</v>
+      </c>
       <c r="O317" s="4"/>
       <c r="P317" s="9"/>
       <c r="Q317" s="4"/>
@@ -23341,20 +23625,45 @@
     </row>
     <row r="318" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-      <c r="G318" s="4"/>
-      <c r="H318" s="4"/>
-      <c r="I318" s="4"/>
-      <c r="J318" s="4"/>
-      <c r="K318" s="4"/>
-      <c r="L318" s="18"/>
-      <c r="M318" s="18"/>
-      <c r="N318" s="9"/>
-      <c r="O318" s="4"/>
+      <c r="B318" s="23">
+        <v>45214</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D318" s="18"/>
+      <c r="E318" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F318" s="18"/>
+      <c r="G318" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H318" s="6">
+        <v>0</v>
+      </c>
+      <c r="I318" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>無敵</v>
+      </c>
+      <c r="J318" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K318" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L318" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M318" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="N318" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="O318" s="16" t="s">
+        <v>667</v>
+      </c>
       <c r="P318" s="9"/>
       <c r="Q318" s="4"/>
       <c r="R318" s="4"/>
@@ -23378,20 +23687,45 @@
     </row>
     <row r="319" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
-      <c r="H319" s="4"/>
-      <c r="I319" s="4"/>
-      <c r="J319" s="4"/>
-      <c r="K319" s="4"/>
-      <c r="L319" s="18"/>
-      <c r="M319" s="18"/>
-      <c r="N319" s="9"/>
-      <c r="O319" s="4"/>
+      <c r="B319" s="23">
+        <v>45216</v>
+      </c>
+      <c r="C319" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D319" s="18"/>
+      <c r="E319" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F319" s="18"/>
+      <c r="G319" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H319" s="6">
+        <v>0</v>
+      </c>
+      <c r="I319" s="6" t="str">
+        <f>E319</f>
+        <v>Magic</v>
+      </c>
+      <c r="J319" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="K319" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L319" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M319" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="N319" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="O319" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="P319" s="9"/>
       <c r="Q319" s="4"/>
       <c r="R319" s="4"/>
@@ -45390,6 +45724,191 @@
       <c r="AG913" s="4"/>
       <c r="AH913" s="4"/>
       <c r="AI913" s="4"/>
+    </row>
+    <row r="914" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A914" s="4"/>
+      <c r="B914" s="4"/>
+      <c r="C914" s="4"/>
+      <c r="D914" s="4"/>
+      <c r="E914" s="4"/>
+      <c r="F914" s="4"/>
+      <c r="G914" s="4"/>
+      <c r="H914" s="4"/>
+      <c r="I914" s="4"/>
+      <c r="J914" s="4"/>
+      <c r="K914" s="4"/>
+      <c r="L914" s="18"/>
+      <c r="M914" s="18"/>
+      <c r="N914" s="9"/>
+      <c r="O914" s="4"/>
+      <c r="P914" s="9"/>
+      <c r="Q914" s="4"/>
+      <c r="R914" s="4"/>
+      <c r="S914" s="4"/>
+      <c r="T914" s="4"/>
+      <c r="U914" s="4"/>
+      <c r="V914" s="4"/>
+      <c r="W914" s="4"/>
+      <c r="X914" s="4"/>
+      <c r="Y914" s="4"/>
+      <c r="Z914" s="4"/>
+      <c r="AA914" s="4"/>
+      <c r="AB914" s="4"/>
+      <c r="AC914" s="4"/>
+      <c r="AD914" s="4"/>
+      <c r="AE914" s="4"/>
+      <c r="AF914" s="4"/>
+      <c r="AG914" s="4"/>
+      <c r="AH914" s="4"/>
+      <c r="AI914" s="4"/>
+    </row>
+    <row r="915" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A915" s="4"/>
+      <c r="B915" s="4"/>
+      <c r="C915" s="4"/>
+      <c r="D915" s="4"/>
+      <c r="E915" s="4"/>
+      <c r="F915" s="4"/>
+      <c r="G915" s="4"/>
+      <c r="H915" s="4"/>
+      <c r="I915" s="4"/>
+      <c r="J915" s="4"/>
+      <c r="K915" s="4"/>
+      <c r="L915" s="18"/>
+      <c r="M915" s="18"/>
+      <c r="N915" s="9"/>
+      <c r="O915" s="4"/>
+      <c r="P915" s="9"/>
+      <c r="Q915" s="4"/>
+      <c r="R915" s="4"/>
+      <c r="S915" s="4"/>
+      <c r="T915" s="4"/>
+      <c r="U915" s="4"/>
+      <c r="V915" s="4"/>
+      <c r="W915" s="4"/>
+      <c r="X915" s="4"/>
+      <c r="Y915" s="4"/>
+      <c r="Z915" s="4"/>
+      <c r="AA915" s="4"/>
+      <c r="AB915" s="4"/>
+      <c r="AC915" s="4"/>
+      <c r="AD915" s="4"/>
+      <c r="AE915" s="4"/>
+      <c r="AF915" s="4"/>
+      <c r="AG915" s="4"/>
+      <c r="AH915" s="4"/>
+      <c r="AI915" s="4"/>
+    </row>
+    <row r="916" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A916" s="4"/>
+      <c r="B916" s="4"/>
+      <c r="C916" s="4"/>
+      <c r="D916" s="4"/>
+      <c r="E916" s="4"/>
+      <c r="F916" s="4"/>
+      <c r="G916" s="4"/>
+      <c r="H916" s="4"/>
+      <c r="I916" s="4"/>
+      <c r="J916" s="4"/>
+      <c r="K916" s="4"/>
+      <c r="L916" s="18"/>
+      <c r="M916" s="18"/>
+      <c r="N916" s="9"/>
+      <c r="O916" s="4"/>
+      <c r="P916" s="9"/>
+      <c r="Q916" s="4"/>
+      <c r="R916" s="4"/>
+      <c r="S916" s="4"/>
+      <c r="T916" s="4"/>
+      <c r="U916" s="4"/>
+      <c r="V916" s="4"/>
+      <c r="W916" s="4"/>
+      <c r="X916" s="4"/>
+      <c r="Y916" s="4"/>
+      <c r="Z916" s="4"/>
+      <c r="AA916" s="4"/>
+      <c r="AB916" s="4"/>
+      <c r="AC916" s="4"/>
+      <c r="AD916" s="4"/>
+      <c r="AE916" s="4"/>
+      <c r="AF916" s="4"/>
+      <c r="AG916" s="4"/>
+      <c r="AH916" s="4"/>
+      <c r="AI916" s="4"/>
+    </row>
+    <row r="917" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A917" s="4"/>
+      <c r="B917" s="4"/>
+      <c r="C917" s="4"/>
+      <c r="D917" s="4"/>
+      <c r="E917" s="4"/>
+      <c r="F917" s="4"/>
+      <c r="G917" s="4"/>
+      <c r="H917" s="4"/>
+      <c r="I917" s="4"/>
+      <c r="J917" s="4"/>
+      <c r="K917" s="4"/>
+      <c r="L917" s="18"/>
+      <c r="M917" s="18"/>
+      <c r="N917" s="9"/>
+      <c r="O917" s="4"/>
+      <c r="P917" s="9"/>
+      <c r="Q917" s="4"/>
+      <c r="R917" s="4"/>
+      <c r="S917" s="4"/>
+      <c r="T917" s="4"/>
+      <c r="U917" s="4"/>
+      <c r="V917" s="4"/>
+      <c r="W917" s="4"/>
+      <c r="X917" s="4"/>
+      <c r="Y917" s="4"/>
+      <c r="Z917" s="4"/>
+      <c r="AA917" s="4"/>
+      <c r="AB917" s="4"/>
+      <c r="AC917" s="4"/>
+      <c r="AD917" s="4"/>
+      <c r="AE917" s="4"/>
+      <c r="AF917" s="4"/>
+      <c r="AG917" s="4"/>
+      <c r="AH917" s="4"/>
+      <c r="AI917" s="4"/>
+    </row>
+    <row r="918" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A918" s="4"/>
+      <c r="B918" s="4"/>
+      <c r="C918" s="4"/>
+      <c r="D918" s="4"/>
+      <c r="E918" s="4"/>
+      <c r="F918" s="4"/>
+      <c r="G918" s="4"/>
+      <c r="H918" s="4"/>
+      <c r="I918" s="4"/>
+      <c r="J918" s="4"/>
+      <c r="K918" s="4"/>
+      <c r="L918" s="18"/>
+      <c r="M918" s="18"/>
+      <c r="N918" s="9"/>
+      <c r="O918" s="4"/>
+      <c r="P918" s="9"/>
+      <c r="Q918" s="4"/>
+      <c r="R918" s="4"/>
+      <c r="S918" s="4"/>
+      <c r="T918" s="4"/>
+      <c r="U918" s="4"/>
+      <c r="V918" s="4"/>
+      <c r="W918" s="4"/>
+      <c r="X918" s="4"/>
+      <c r="Y918" s="4"/>
+      <c r="Z918" s="4"/>
+      <c r="AA918" s="4"/>
+      <c r="AB918" s="4"/>
+      <c r="AC918" s="4"/>
+      <c r="AD918" s="4"/>
+      <c r="AE918" s="4"/>
+      <c r="AF918" s="4"/>
+      <c r="AG918" s="4"/>
+      <c r="AH918" s="4"/>
+      <c r="AI918" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -45681,24 +46200,32 @@
     <hyperlink ref="O290" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
     <hyperlink ref="O291" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
     <hyperlink ref="O292" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="O293" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="O294" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="O295" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="O296" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="O297" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="O298" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="O299" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="O300" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="O301" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="O302" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="O303" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="O304" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="O305" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="O306" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="O307" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="O294" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="O295" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="O296" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="O297" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="O298" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="O299" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="O300" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="O301" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="O302" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="O303" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="O304" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="O305" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="O306" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="O307" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="O308" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="O309" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="O310" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="O311" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="O313" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="O314" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="O315" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="O318" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="O319" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId303"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -45709,9 +46236,9 @@
   </sheetPr>
   <dimension ref="A1:AD621"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45727,22 +46254,22 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -45774,16 +46301,16 @@
         <v>223</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="24"/>
@@ -45816,16 +46343,16 @@
         <v>156</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="24"/>
@@ -45858,16 +46385,16 @@
         <v>511</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="24"/>
@@ -45900,16 +46427,16 @@
         <v>530</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="24"/>
@@ -45942,16 +46469,16 @@
         <v>211</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="24"/>
@@ -45984,16 +46511,16 @@
         <v>434</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="24"/>
@@ -46026,16 +46553,16 @@
         <v>433</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="24"/>
@@ -46068,16 +46595,16 @@
         <v>215</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="24"/>
@@ -46110,16 +46637,16 @@
         <v>224</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="24"/>
@@ -46152,16 +46679,16 @@
         <v>437</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -46194,16 +46721,16 @@
         <v>148</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -46236,16 +46763,16 @@
         <v>517</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -46278,16 +46805,16 @@
         <v>202</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>666</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -46320,16 +46847,16 @@
         <v>210</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>666</v>
-      </c>
       <c r="D15" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
@@ -46362,16 +46889,16 @@
         <v>540</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>666</v>
-      </c>
       <c r="D16" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="29"/>
@@ -46404,16 +46931,16 @@
         <v>536</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>666</v>
-      </c>
       <c r="D17" s="26" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="29"/>
@@ -46446,16 +46973,16 @@
         <v>29</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="29"/>
@@ -46488,16 +47015,16 @@
         <v>28</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="29"/>
@@ -46530,16 +47057,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="29"/>
@@ -46572,16 +47099,16 @@
         <v>34</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="29"/>
@@ -46614,16 +47141,16 @@
         <v>38</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="29"/>
@@ -46656,16 +47183,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="29"/>
@@ -46698,16 +47225,16 @@
         <v>135</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="29"/>
@@ -46740,16 +47267,16 @@
         <v>163</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="29"/>
@@ -46782,16 +47309,16 @@
         <v>206</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="29"/>
@@ -46824,16 +47351,16 @@
         <v>353</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="29"/>
@@ -46866,16 +47393,16 @@
         <v>352</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="29"/>
@@ -46908,16 +47435,16 @@
         <v>350</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="29"/>
@@ -46950,16 +47477,16 @@
         <v>593</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="29"/>
@@ -46992,16 +47519,16 @@
         <v>589</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="29"/>
@@ -47034,16 +47561,16 @@
         <v>591</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="29"/>
@@ -47076,16 +47603,16 @@
         <v>547</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="29"/>
@@ -47118,16 +47645,16 @@
         <v>152</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="29"/>
@@ -47160,16 +47687,16 @@
         <v>134</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="29"/>
@@ -47202,16 +47729,16 @@
         <v>157</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="29"/>
@@ -47244,16 +47771,16 @@
         <v>543</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="29"/>
@@ -47286,16 +47813,16 @@
         <v>544</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="29"/>
@@ -47328,16 +47855,16 @@
         <v>344</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="29"/>
@@ -47370,16 +47897,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="29"/>
@@ -47409,19 +47936,19 @@
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="29"/>
@@ -47454,16 +47981,16 @@
         <v>23</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="29"/>
@@ -47496,16 +48023,16 @@
         <v>141</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="29"/>
@@ -47538,16 +48065,16 @@
         <v>220</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="29"/>
@@ -47580,16 +48107,16 @@
         <v>347</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="29"/>
@@ -47622,16 +48149,16 @@
         <v>343</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="29"/>
@@ -47664,16 +48191,16 @@
         <v>509</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="29"/>
@@ -47706,16 +48233,16 @@
         <v>504</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="29"/>
@@ -47748,16 +48275,16 @@
         <v>521</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="29"/>
@@ -47786,11 +48313,21 @@
       <c r="AD49" s="29"/>
     </row>
     <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>697</v>
+      </c>
       <c r="F50" s="26"/>
       <c r="G50" s="29"/>
       <c r="H50" s="26"/>
@@ -47818,11 +48355,21 @@
       <c r="AD50" s="29"/>
     </row>
     <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="A51" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>699</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>699</v>
+      </c>
       <c r="F51" s="26"/>
       <c r="G51" s="29"/>
       <c r="H51" s="26"/>
